--- a/BenchmarksWM.Data/BMOverview/benchmarks2.4.xlsx
+++ b/BenchmarksWM.Data/BMOverview/benchmarks2.4.xlsx
@@ -1,91 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joscha/Desktop/fix_small_issue/BenchmarksWM/BenchmarksWM.Data/BMOverview/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5205F27E-914F-3349-A996-0DB382C20B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="540" yWindow="1880" windowWidth="14320" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response.variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memory.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stimulus.material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floden10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filled retention interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proportion correct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown-Peterson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbal (words)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lewandowsky10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inter-stimulus interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complex span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ricker17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presentation duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continuous reproduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial recall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visual (orientations)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>manipulation</t>
+  </si>
+  <si>
+    <t>response.variable</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>memory.test</t>
+  </si>
+  <si>
+    <t>stimulus.material</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>verbal (words)</t>
+  </si>
+  <si>
+    <t>ricker17</t>
+  </si>
+  <si>
+    <t>presentation duration</t>
+  </si>
+  <si>
+    <t>response error</t>
+  </si>
+  <si>
+    <t>continuous reproduction</t>
+  </si>
+  <si>
+    <t>serial recall</t>
+  </si>
+  <si>
+    <t>visual (orientations)</t>
+  </si>
+  <si>
+    <t>tan08</t>
+  </si>
+  <si>
+    <t>recall accuracy</t>
+  </si>
+  <si>
+    <t>bays11</t>
+  </si>
+  <si>
+    <t>grenfell13</t>
+  </si>
+  <si>
+    <t>presentation duration x set size</t>
+  </si>
+  <si>
+    <t>presentation duration x articulatory suppression x set size</t>
+  </si>
+  <si>
+    <t>free recall</t>
+  </si>
+  <si>
+    <t>consolidation time</t>
+  </si>
+  <si>
+    <t>single recall</t>
+  </si>
+  <si>
+    <t>visual (dots on a ring)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -118,9 +131,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -402,14 +424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,68 +460,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>